--- a/자유수강권/한자속독(수강).xlsx
+++ b/자유수강권/한자속독(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="82">
   <si>
     <t>주야</t>
   </si>
@@ -58,6 +58,15 @@
     <t/>
   </si>
   <si>
+    <t>4반</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>이지현</t>
+  </si>
+  <si>
     <t>5반</t>
   </si>
   <si>
@@ -94,18 +103,21 @@
     <t>1반</t>
   </si>
   <si>
+    <t>강지석</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>강지연</t>
+  </si>
+  <si>
     <t>오은지</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>임연진</t>
   </si>
   <si>
-    <t>4반</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>임현성</t>
   </si>
   <si>
+    <t>권범수</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -145,12 +160,15 @@
     <t>이용성</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>고윤서</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>이지민</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -181,6 +199,9 @@
     <t>한하진</t>
   </si>
   <si>
+    <t>강민석</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -230,9 +251,6 @@
   </si>
   <si>
     <t>최예진</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>이다윤</t>
@@ -610,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -707,13 +725,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -733,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -759,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -782,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -808,16 +826,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -834,10 +852,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -860,16 +878,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -886,16 +904,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -912,16 +930,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -938,16 +956,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -964,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -990,16 +1008,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -1016,16 +1034,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -1042,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -1068,16 +1086,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1094,16 +1112,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1120,16 +1138,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1146,16 +1164,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1172,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1198,16 +1216,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1224,16 +1242,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1250,16 +1268,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1276,16 +1294,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1302,16 +1320,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -1328,16 +1346,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1354,16 +1372,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1380,16 +1398,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1406,16 +1424,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1432,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1458,16 +1476,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
@@ -1484,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1510,16 +1528,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1536,24 +1554,180 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.5">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.5">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13.5">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.5">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13.5">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.5">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
